--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44943</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45187</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45170</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>45909</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>44595</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44455</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>45541.87185185185</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45028</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44901</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>45376</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45310</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45835</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>44943</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45310</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44655</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44316</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44722.59909722222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44271</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44251</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44680.48662037037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44812.44907407407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44525.6672337963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44579</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44563.64881944445</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>44314</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44470</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>44342.43024305555</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44249</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44480.43649305555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44834.34634259259</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44742</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44579</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>44834.33880787037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44439.5440625</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>44420.57840277778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>44563.64143518519</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>44581</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44783.69622685185</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44462.36195601852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>44523</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44308</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44470</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44582</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44776</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44776.32068287037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44489</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44783.6934375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44249</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44796</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44522</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44489.59065972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>44525.66943287037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44526.46231481482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>44484.60773148148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44440.71251157407</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44487</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44812.44100694444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44743</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>44680.48541666667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>45119</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>45351.58114583333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>45705</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>45611.58128472222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>44903</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>44308</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>45007.76496527778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>45412</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>45205.45309027778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>45051.5504050926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>45051.55247685185</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>45530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>45448.41711805556</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>45721.69927083333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>44962</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>45702.61518518518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>45180.55827546296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>45721.70048611111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>45246.64336805556</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>45246</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>45761</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>45714</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>45770.68087962963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>45219.63459490741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>44287</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         <v>44935.9128125</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>45726</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>44895.553125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>44952</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>44952</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>44686</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>45550</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>44845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>45636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>45104</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>45600.57712962963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44249.39398148148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44797</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>45758.58511574074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>45187</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>45166.66488425926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>45884.54277777778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>45884.55166666667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>45212.44112268519</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>45028</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>45805.34901620371</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>45884.42872685185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>45884.39449074074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>45732.32385416667</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>45810.38347222222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>44480</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44649</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>45888.5399537037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>45813.36682870371</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>45266.57267361111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>45813.39872685185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>45813.4087037037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>45813.37719907407</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>45813.3862037037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>45813.44224537037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45894.67875</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>45461</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45429</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>45898.80243055556</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45898.40318287037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45898.60074074074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45898.40739583333</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>45898.41143518518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>45898.80969907407</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>45898.80011574074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>45870.51523148148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>45757.89836805555</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>45687</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>45820.43166666666</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>45229</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44983</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44970</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>45824</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>45902</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45824</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45905</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44395</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45068</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>45908.48697916666</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>45824</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>45908.47857638889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>45824.39857638889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>45827.49337962963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>45911.34318287037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>45826</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>45601.72070601852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>45827.33818287037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>45915.58861111111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>45916</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>45826</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>45205.45201388889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>45205.45410879629</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>45826.39158564815</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>45826.39471064815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45916.38508101852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45916.32633101852</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45831.62890046297</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45919.71508101852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45918.60929398148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45918.60636574074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45918.60797453704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45919.31074074074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45632.8615162037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45400.89645833334</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>45922.46510416667</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>45922</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44624.9272337963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>45468</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>45926.61545138889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>45108</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45911</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45240.655625</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45928.73126157407</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45926.61464120371</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45114.41935185185</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45558</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44568</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45716.49268518519</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45732.32552083334</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45937.42768518518</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45937.4305787037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44462</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45072</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45104.63803240741</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45939</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45114</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45845</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>45719</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44812.56114583334</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>45842.35327546296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>45846</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>45846.66744212963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>45846</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>45848.40825231482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>45848.41505787037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>45501</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>45849</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>45849</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>45848.41686342593</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>45849</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>45849</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>45254</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>45855.51424768518</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>45950.68288194444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>45714</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44797</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>45035</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>45953.50732638889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45744.57290509259</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45151.9915625</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45953.3878125</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45789</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45737.58035879629</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44897</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45219.63592592593</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45954</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45841.86815972222</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>45439</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>45152</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>45874</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>45540.71100694445</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>45874</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>44959</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44301.64060185185</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>45405</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>45270.94265046297</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>44287</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>45960.43322916667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45225</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44410</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45943</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45943</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45943</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>44586</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45330</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45238.43497685185</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45148.46922453704</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45967.81233796296</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>45967.80944444444</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>45967.81849537037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45553</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45169</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45841.871875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45975.45351851852</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45884.36712962963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45884.39746527778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>45884.41262731481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>45975.57913194445</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16043,7 +16043,7 @@
         <v>45975.59559027778</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>45279</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16157,7 +16157,7 @@
         <v>45981.62704861111</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>45981.60866898148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>45006.68451388889</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>45118</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>45986.65247685185</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>44923.68336805556</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>45986.65084490741</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>45580.40693287037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>45986.64540509259</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>45986.64400462963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>45106</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16784,7 +16784,7 @@
         <v>44420</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>44622.57549768518</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>44518.45365740741</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45090.59613425926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17017,7 +17017,7 @@
         <v>45713.50300925926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>45988.7002199074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>45457</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         <v>45163.36048611111</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17245,7 +17245,7 @@
         <v>45758.58395833334</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17302,7 +17302,7 @@
         <v>45917</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17359,7 +17359,7 @@
         <v>45519.95033564815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17416,7 +17416,7 @@
         <v>45091</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17473,7 +17473,7 @@
         <v>45722.69996527778</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17530,7 +17530,7 @@
         <v>45037</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>44480</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>45947</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>45204</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44981</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>46035</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>45953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>45953</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>45720.47795138889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>46041.53674768518</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44568</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44607.87353009259</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>45757</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44448.65248842593</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44525.66571759259</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44943</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44531.79486111111</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>46001.68387731481</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>46001.55708333333</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>46001.68565972222</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>45743.34945601852</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>46002.42236111111</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>45987</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>45601.72583333333</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44897</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44571.64533564815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>45009.46552083334</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>45894</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44876</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>45376.34775462963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>45903</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>45706.46650462963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19369,7 +19369,7 @@
         <v>45148</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         <v>45775</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19483,7 +19483,7 @@
         <v>45894</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>45894</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>45307</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19654,7 +19654,7 @@
         <v>45056.33105324074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19711,7 +19711,7 @@
         <v>45617.66905092593</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45607</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19825,7 +19825,7 @@
         <v>45631.53980324074</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         <v>44609.33252314815</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>45054.39908564815</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19996,7 +19996,7 @@
         <v>44812.4453587963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20053,7 +20053,7 @@
         <v>46055.43966435185</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>44588.40914351852</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45068.25590277778</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20229,7 +20229,7 @@
         <v>46057.46048611111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>45740.59333333333</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>46059.48290509259</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>46051</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>46045</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>46045</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>46058.45077546296</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44533.41365740741</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>45588.59628472223</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>45502</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>45138.87420138889</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>45079</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>44530.54111111111</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>44971</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45373.64959490741</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>44249</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44943.75679398148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>45114</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45550</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>44742</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44827</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45519.98370370371</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45243</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>45104</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44823</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>45307</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>44939</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>44939.6433912037</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>44939</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>44760</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44952.53105324074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>45147.54706018518</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>45439</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>44924.77844907407</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>45148.46177083333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44369</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44623</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>45747.69128472222</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>45225</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>45717.3734375</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>44426</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>45446</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         <v>45631</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         <v>44951</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>45708</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22799,7 +22799,7 @@
         <v>45197.62392361111</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22856,7 +22856,7 @@
         <v>45714</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>45754.44438657408</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>45163.6459837963</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>44862</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>45309.74043981481</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>45596</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>45596</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>45567.93495370371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23317,7 +23317,7 @@
         <v>45565.34173611111</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23374,7 +23374,7 @@
         <v>44259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23431,7 +23431,7 @@
         <v>45236.59087962963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23488,7 +23488,7 @@
         <v>45114.42126157408</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
         <v>44844.43563657408</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>44660</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44300.66534722222</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44816</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44728</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44448</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>45344.67582175926</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>45400.91003472222</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44946.46230324074</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>45266</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>45328.58417824074</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>45782</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24239,7 +24239,7 @@
         <v>45777.57210648148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24296,7 +24296,7 @@
         <v>45412</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24358,7 +24358,7 @@
         <v>45782.66813657407</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24415,7 +24415,7 @@
         <v>45782.67138888889</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24472,7 +24472,7 @@
         <v>45782</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45782</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45775</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         <v>44609.33084490741</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24700,7 +24700,7 @@
         <v>45243</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24757,7 +24757,7 @@
         <v>45331</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         <v>45787.79615740741</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24871,7 +24871,7 @@
         <v>44302</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24928,7 +24928,7 @@
         <v>45796.500625</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>

--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44943</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45187</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45170</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>45909</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>44595</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44455</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>45541.87185185185</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45028</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>44901</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>45376</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45310</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45835</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>44943</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45310</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44655</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44316</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44722.59909722222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44271</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44251</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44680.48662037037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44812.44907407407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44525.6672337963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44579</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44563.64881944445</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>44314</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44470</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>44342.43024305555</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44249</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44480.43649305555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44834.34634259259</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44742</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44579</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>44834.33880787037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44439.5440625</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>44420.57840277778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>44563.64143518519</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>44581</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44783.69622685185</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44462.36195601852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>44523</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44308</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44470</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44582</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44776</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44776.32068287037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44489</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44783.6934375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44249</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44796</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44522</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44489.59065972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>44525.66943287037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44526.46231481482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>44484.60773148148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44440.71251157407</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44487</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44812.44100694444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44743</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>44680.48541666667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>45119</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>45351.58114583333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>45705</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>45611.58128472222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>44903</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>44308</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>45007.76496527778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>45412</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>45205.45309027778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>45051.5504050926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>45051.55247685185</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>45530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>45448.41711805556</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>45721.69927083333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>44962</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>45702.61518518518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>45180.55827546296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>45721.70048611111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>45246.64336805556</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>45246</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>45761</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>45714</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>45770.68087962963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>45219.63459490741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>44287</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         <v>44935.9128125</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>45726</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>44895.553125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>44952</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>44952</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>44686</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>45550</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>44845</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>45636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>45104</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>45600.57712962963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44249.39398148148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44797</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>45758.58511574074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>45187</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>45166.66488425926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>45884.54277777778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>45884.55166666667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>45212.44112268519</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>45028</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>45805.34901620371</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>45884.42872685185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>45884.39449074074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>45732.32385416667</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>45810.38347222222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>44480</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44649</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>45888.5399537037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>45813.36682870371</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>45266.57267361111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>45813.39872685185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>45813.4087037037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>45813.37719907407</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>45813.3862037037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>45813.44224537037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45894.67875</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>45461</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45429</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>45898.80243055556</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45898.40318287037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45898.60074074074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45898.40739583333</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>45898.41143518518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>45898.80969907407</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>45898.80011574074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>45870.51523148148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>45757.89836805555</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>45687</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>45820.43166666666</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>45229</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44983</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44970</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>45824</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>45902</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45824</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45905</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44395</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45068</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>45908.48697916666</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>45824</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>45908.47857638889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>45824.39857638889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>45827.49337962963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>45911.34318287037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>45826</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>45601.72070601852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>45827.33818287037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>45915.58861111111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>45916</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>45826</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>45205.45201388889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>45205.45410879629</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>45826.39158564815</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>45826.39471064815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45916.38508101852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45916.32633101852</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45831.62890046297</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45919.71508101852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45918.60929398148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45918.60636574074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45918.60797453704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45919.31074074074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45632.8615162037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45400.89645833334</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>45922.46510416667</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>45922</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44624.9272337963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>45468</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>45926.61545138889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>45108</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45911</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45240.655625</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45928.73126157407</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45926.61464120371</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45114.41935185185</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45558</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44568</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45716.49268518519</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45732.32552083334</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45937.42768518518</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45937.4305787037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44462</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45072</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45104.63803240741</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45939</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45114</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45845</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>45719</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44812.56114583334</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>45842.35327546296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>45846</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>45846.66744212963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>45846</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>45848.40825231482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>45848.41505787037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>45501</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>45849</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>45849</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>45848.41686342593</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>45849</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>45849</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>45254</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>45855.51424768518</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>45950.68288194444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>45714</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44797</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>45035</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>45953.50732638889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45744.57290509259</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45151.9915625</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45953.3878125</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45789</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45737.58035879629</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44897</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45219.63592592593</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45954</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45841.86815972222</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>45439</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>45152</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>45874</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>45540.71100694445</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>45874</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>44959</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44301.64060185185</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>45405</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>45270.94265046297</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>44287</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>45960.43322916667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45225</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44410</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45943</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45943</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45943</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>44586</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45330</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45238.43497685185</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45148.46922453704</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45967.81233796296</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>45967.80944444444</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>45967.81849537037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45553</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45169</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45841.871875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45975.45351851852</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45884.36712962963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45884.39746527778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>45884.41262731481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>45975.57913194445</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16043,7 +16043,7 @@
         <v>45975.59559027778</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>45279</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16157,7 +16157,7 @@
         <v>45981.62704861111</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>45981.60866898148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>45006.68451388889</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>45118</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>45986.65247685185</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>44923.68336805556</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>45986.65084490741</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>45580.40693287037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>45986.64540509259</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>45986.64400462963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>45106</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16784,7 +16784,7 @@
         <v>44420</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>44622.57549768518</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>44518.45365740741</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45090.59613425926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17017,7 +17017,7 @@
         <v>45713.50300925926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>45988.7002199074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>45457</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         <v>45163.36048611111</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17245,7 +17245,7 @@
         <v>45758.58395833334</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17302,7 +17302,7 @@
         <v>45917</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17359,7 +17359,7 @@
         <v>45519.95033564815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17416,7 +17416,7 @@
         <v>45091</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17473,7 +17473,7 @@
         <v>45722.69996527778</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17530,7 +17530,7 @@
         <v>45037</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>44480</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>45947</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>45204</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44981</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>46035</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>45953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>45953</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>45720.47795138889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>46041.53674768518</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44568</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44607.87353009259</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>45757</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44448.65248842593</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44525.66571759259</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44943</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44531.79486111111</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>46001.68387731481</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>46001.55708333333</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>46001.68565972222</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>45743.34945601852</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>46002.42236111111</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>45987</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>45601.72583333333</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44897</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44571.64533564815</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>45009.46552083334</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>45894</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44876</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>45376.34775462963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>45903</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>45706.46650462963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19369,7 +19369,7 @@
         <v>45148</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         <v>45775</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19483,7 +19483,7 @@
         <v>45894</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>45894</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>45307</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19654,7 +19654,7 @@
         <v>45056.33105324074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19711,7 +19711,7 @@
         <v>45617.66905092593</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45607</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19825,7 +19825,7 @@
         <v>45631.53980324074</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         <v>44609.33252314815</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>45054.39908564815</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19996,7 +19996,7 @@
         <v>44812.4453587963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20053,7 +20053,7 @@
         <v>46055.43966435185</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>44588.40914351852</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45068.25590277778</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20229,7 +20229,7 @@
         <v>46057.46048611111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>45740.59333333333</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>46059.48290509259</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>46051</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>46045</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>46045</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>46058.45077546296</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44533.41365740741</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>45588.59628472223</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>45502</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>45138.87420138889</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>45079</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>44530.54111111111</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>44971</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45373.64959490741</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>44249</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44943.75679398148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>45114</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45550</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>44742</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44827</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45519.98370370371</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45243</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>45104</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44823</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>45307</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>44939</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>44939.6433912037</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>44939</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>44760</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44952.53105324074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>45147.54706018518</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>45439</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>44924.77844907407</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>45148.46177083333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44369</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44623</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>45747.69128472222</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>45225</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>45717.3734375</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>44426</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>45446</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         <v>45631</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         <v>44951</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>45708</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22799,7 +22799,7 @@
         <v>45197.62392361111</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22856,7 +22856,7 @@
         <v>45714</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>45754.44438657408</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>45163.6459837963</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>44862</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>45309.74043981481</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>45596</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>45596</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>45567.93495370371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23317,7 +23317,7 @@
         <v>45565.34173611111</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23374,7 +23374,7 @@
         <v>44259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23431,7 +23431,7 @@
         <v>45236.59087962963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23488,7 +23488,7 @@
         <v>45114.42126157408</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
         <v>44844.43563657408</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>44660</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>44300.66534722222</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>44816</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44728</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44448</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>45344.67582175926</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>45400.91003472222</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>44946.46230324074</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>45266</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>45328.58417824074</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>45782</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24239,7 +24239,7 @@
         <v>45777.57210648148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24296,7 +24296,7 @@
         <v>45412</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24358,7 +24358,7 @@
         <v>45782.66813657407</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24415,7 +24415,7 @@
         <v>45782.67138888889</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24472,7 +24472,7 @@
         <v>45782</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45782</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45775</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         <v>44609.33084490741</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24700,7 +24700,7 @@
         <v>45243</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24757,7 +24757,7 @@
         <v>45331</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         <v>45787.79615740741</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24871,7 +24871,7 @@
         <v>44302</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24928,7 +24928,7 @@
         <v>45796.500625</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>

--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44943</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45187</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45170</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>45909</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>44595</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44455</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>45541.87185185185</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45028</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>45835</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44901</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45376</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45310</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>44943</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45310</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44655</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44316</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44722.59909722222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44271</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44251</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44680.48662037037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44812.44907407407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44525.6672337963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44579</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44342.43024305555</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>44314</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44563.64881944445</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>44470</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44249</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44480.43649305555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44834.34634259259</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44742</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44579</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>44834.33880787037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44439.5440625</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>44420.57840277778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>44410</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>44563.64143518519</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>44783.69622685185</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44462.36195601852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44581</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>44523</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44470</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44308</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44582</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44776</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44776.32068287037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44489</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44783.6934375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44249</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44796</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44522</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44489.59065972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>44525.66943287037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44526.46231481482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>44484.60773148148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44440.71251157407</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44487</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44812.44100694444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44743</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>45351.58114583333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>44308</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>45705</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>45007.76496527778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>45611.58128472222</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>44903</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>45205.45309027778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>44680.48541666667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>45051.5504050926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>45051.55247685185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>45412</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>45448.41711805556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>45530</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>45721.69927083333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>44962</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>45180.55827546296</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>45702.61518518518</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>45721.70048611111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>45246.64336805556</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>45246</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>45761</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>45219.63459490741</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>45726</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44287</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>44935.9128125</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         <v>44895.553125</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>45550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>44952</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>44952</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>44686</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>44845</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>45636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>45714</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44249.39398148148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44797</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>45758.58511574074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>45770.68087962963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>45187</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>45166.66488425926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>45028</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>45212.44112268519</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>45732.32385416667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>44480</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>45266.57267361111</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>44649</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>45461</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45884.54277777778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>45884.55166666667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>45429</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>45884.42872685185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>45884.39449074074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45820.43166666666</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>45824</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>45824</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>45824</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>45687</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>45824.39857638889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>45229</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>45888.5399537037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>44983</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44970</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>45827.49337962963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45826</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45827.33818287037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44395</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>45068</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45826</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>45826.39158564815</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>45894.67875</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>45826.39471064815</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>45831.62890046297</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>45601.72070601852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>45898.80243055556</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>45898.40318287037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>45898.60074074074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>45898.40739583333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>45898.41143518518</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>45898.80969907407</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>45205.45201388889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>45205.45410879629</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>45898.80011574074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>45870.51523148148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>45757.89836805555</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>45632.8615162037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>45400.89645833334</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>45902</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>45905</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>45908.48697916666</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>45908.47857638889</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44624.9272337963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>45468</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>45104.63803240741</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>45845</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>45911.34318287037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>45719</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>45108</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>45842.35327546296</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>45846</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45240.655625</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45846.66744212963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45915.58861111111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45846</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45114.41935185185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45916</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45848.40825231482</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45848.41505787037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45849</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45558</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45849</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>45916.38508101852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>45848.41686342593</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>45916.32633101852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>45849</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>45849</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>45919.71508101852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45855.51424768518</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45918.60929398148</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45918.60636574074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45918.60797453704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45919.31074074074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44568</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45716.49268518519</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45732.32552083334</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45922.46510416667</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45922</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45789</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44462</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45737.58035879629</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45926.61545138889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45072</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45911</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45114</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>45928.73126157407</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>45926.61464120371</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>45841.86815972222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>44812.56114583334</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>45874</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>45874</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>45501</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44410</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>45254</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44586</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>45714</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>45937.42768518518</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44797</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>45937.4305787037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>45035</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>45841.871875</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>45744.57290509259</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>45151.9915625</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>45884.36712962963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>45939</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44897</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45884.39746527778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45219.63592592593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45884.41262731481</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45439</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45152</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45540.71100694445</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44301.64060185185</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45405</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>45950.68288194444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>45270.94265046297</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44287</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>45953.50732638889</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>45225</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>45953.3878125</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>45330</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>45238.43497685185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>45954</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>45148.46922453704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>45553</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45169</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45960.43322916667</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45943</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45943</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45943</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45279</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45967.81233796296</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>45967.80944444444</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>45967.81849537037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45006.68451388889</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45118</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45975.45351851852</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>44923.68336805556</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45975.57913194445</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45975.59559027778</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45580.40693287037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45106</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>44420</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>44622.57549768518</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44518.45365740741</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>45981.62704861111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>45981.60866898148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>45090.59613425926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>45713.50300925926</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>45457</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>45163.36048611111</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>45758.58395833334</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>45986.65247685185</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>45519.95033564815</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16561,7 +16561,7 @@
         <v>45986.65084490741</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16618,7 +16618,7 @@
         <v>45986.64540509259</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16675,7 +16675,7 @@
         <v>45986.64400462963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>45091</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16789,7 +16789,7 @@
         <v>45722.69996527778</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16846,7 +16846,7 @@
         <v>45037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16903,7 +16903,7 @@
         <v>44480</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45988.7002199074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17017,7 +17017,7 @@
         <v>45204</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>44981</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>45917</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>45720.47795138889</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44568</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>46035</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44607.87353009259</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>45757</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>45953</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>46041.53674768518</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>44448.65248842593</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>44525.66571759259</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>44531.79486111111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>44943</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>46001.68387731481</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>45743.34945601852</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>46001.55708333333</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>46001.68565972222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>46002.42236111111</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>45601.72583333333</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44897</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44571.64533564815</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>45009.46552083334</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44876</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>45376.34775462963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>45706.46650462963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>45148</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>45775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>45307</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>45056.33105324074</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>45894</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>45617.66905092593</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>45607</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>45631.53980324074</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>45903</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44609.33252314815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>45054.39908564815</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44812.4453587963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>45894</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>45894</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44588.40914351852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19369,7 +19369,7 @@
         <v>45068.25590277778</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>46055.43966435185</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
         <v>46057.46048611111</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19545,7 +19545,7 @@
         <v>45740.59333333333</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19602,7 +19602,7 @@
         <v>46059.48290509259</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19659,7 +19659,7 @@
         <v>46051</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>44533.41365740741</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>46045</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>46045</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>46058.45077546296</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>45588.59628472223</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>46065.57916666667</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>45502</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>45138.87420138889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         <v>45953</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20229,7 +20229,7 @@
         <v>45079</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>44530.54111111111</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>44971</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45373.64959490741</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45987</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>44249</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45947</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>44943.75679398148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45114</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45550</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>44742</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>44827</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45519.98370370371</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45243</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45104</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>44823</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>45307</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>44939</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44939.6433912037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>44939</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44760</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44952.53105324074</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45147.54706018518</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>45439</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44924.77844907407</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>45148.46177083333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>44369</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>44623</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>45747.69128472222</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>45225</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>45717.3734375</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>44426</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>45446</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>45631</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>44951</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>45708</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>45197.62392361111</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>45714</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>45754.44438657408</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>45163.6459837963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>44862</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>45309.74043981481</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>45596</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>45596</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>45567.93495370371</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>45565.34173611111</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
         <v>44259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22918,7 +22918,7 @@
         <v>45236.59087962963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22975,7 +22975,7 @@
         <v>45114.42126157408</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44844.43563657408</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44660</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44300.66534722222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44816</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44728</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44448</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>45344.67582175926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>45400.91003472222</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44946.46230324074</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>45266</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>45328.58417824074</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>45782</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>45777.57210648148</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>45412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23845,7 +23845,7 @@
         <v>45782.66813657407</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>45782.67138888889</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>45782</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         <v>45782</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>45775</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         <v>44609.33084490741</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24187,7 +24187,7 @@
         <v>45243</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24244,7 +24244,7 @@
         <v>45331</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
         <v>45787.79615740741</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24358,7 +24358,7 @@
         <v>44302</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24415,7 +24415,7 @@
         <v>45796.500625</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24472,7 +24472,7 @@
         <v>45104</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45600.57712962963</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45805.34901620371</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         <v>45810.38347222222</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24700,7 +24700,7 @@
         <v>45813.36682870371</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24757,7 +24757,7 @@
         <v>45813.39872685185</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         <v>45813.4087037037</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24871,7 +24871,7 @@
         <v>45813.37719907407</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24928,7 +24928,7 @@
         <v>45813.3862037037</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>45813.44224537037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>

--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44943</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45187</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45170</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>45909</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>44595</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44455</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>45541.87185185185</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>45028</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>45835</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44901</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45376</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45310</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>44943</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45310</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44655</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44316</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44722.59909722222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44271</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44251</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44680.48662037037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44812.44907407407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44525.6672337963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44579</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44342.43024305555</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>44314</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44563.64881944445</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>44470</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44249</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44480.43649305555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44834.34634259259</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44742</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44579</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>44834.33880787037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44439.5440625</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>44420.57840277778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>44410</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>44563.64143518519</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>44783.69622685185</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44462.36195601852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44581</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>44523</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44470</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44308</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44582</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44776</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44776.32068287037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44489</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44783.6934375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44580</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44249</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44796</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44522</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44489.59065972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>44525.66943287037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44526.46231481482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>44484.60773148148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44440.71251157407</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44487</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44812.44100694444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44743</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>45351.58114583333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>44308</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>45705</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>45007.76496527778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>45611.58128472222</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>44903</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>45205.45309027778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>44680.48541666667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>45051.5504050926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>45051.55247685185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>45412</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>45448.41711805556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>45530</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>45721.69927083333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>44962</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>45180.55827546296</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>45702.61518518518</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>45721.70048611111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>45246.64336805556</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>45246</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>45761</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>45219.63459490741</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>45726</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44287</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>44935.9128125</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         <v>44895.553125</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>45550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>44952</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>44952</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>44686</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>44845</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>45636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>45714</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44249.39398148148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44797</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>45758.58511574074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>45770.68087962963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>45187</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>45166.66488425926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>45028</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         <v>45212.44112268519</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>45732.32385416667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>44480</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>45266.57267361111</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>44649</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>45461</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45884.54277777778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>45884.55166666667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>45429</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>45884.42872685185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>45884.39449074074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45820.43166666666</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>45824</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>45824</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>45824</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>45687</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>45824.39857638889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>45229</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>45888.5399537037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>44983</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44970</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>45827.49337962963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45826</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45827.33818287037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>44395</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>45068</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45826</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>45826.39158564815</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>45894.67875</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>45826.39471064815</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>45831.62890046297</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>45601.72070601852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>45898.80243055556</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>45898.40318287037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>45898.60074074074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>45898.40739583333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>45898.41143518518</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>45898.80969907407</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>45205.45201388889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>45205.45410879629</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>45898.80011574074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>45870.51523148148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>45757.89836805555</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>45632.8615162037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>45400.89645833334</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>45902</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>45905</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>45908.48697916666</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>45908.47857638889</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44624.9272337963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>45468</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>45104.63803240741</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>45845</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>45911.34318287037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>45719</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>45108</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>45842.35327546296</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>45846</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45240.655625</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45846.66744212963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45915.58861111111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45846</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45114.41935185185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45916</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45848.40825231482</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45848.41505787037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45849</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45558</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45849</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>45916.38508101852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>45848.41686342593</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>45916.32633101852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>45849</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>45849</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>45919.71508101852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45855.51424768518</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45918.60929398148</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45918.60636574074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45918.60797453704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45919.31074074074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44568</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45716.49268518519</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45732.32552083334</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45922.46510416667</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45922</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45789</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44462</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45737.58035879629</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45926.61545138889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45072</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45911</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45114</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>45928.73126157407</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>45926.61464120371</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>45841.86815972222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>44812.56114583334</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>45874</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>45874</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>45501</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>44410</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>45254</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44586</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>45714</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>45937.42768518518</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44797</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>45937.4305787037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>45035</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>45841.871875</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>45744.57290509259</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>45151.9915625</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>45884.36712962963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>45939</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44897</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45884.39746527778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45219.63592592593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45884.41262731481</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45439</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45152</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45540.71100694445</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44301.64060185185</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45405</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>45950.68288194444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>45270.94265046297</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>44287</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>45953.50732638889</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>45225</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>45953.3878125</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>45330</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>45238.43497685185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>45954</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>45148.46922453704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>45553</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45169</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45960.43322916667</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45943</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45943</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45943</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45279</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45967.81233796296</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>45967.80944444444</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>45967.81849537037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45006.68451388889</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45118</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45975.45351851852</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>44923.68336805556</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45975.57913194445</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45975.59559027778</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45580.40693287037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45106</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>44420</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>44622.57549768518</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44518.45365740741</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>45981.62704861111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>45981.60866898148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>45090.59613425926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>45713.50300925926</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>45457</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>45163.36048611111</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>45758.58395833334</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>45986.65247685185</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>45519.95033564815</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16561,7 +16561,7 @@
         <v>45986.65084490741</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16618,7 +16618,7 @@
         <v>45986.64540509259</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16675,7 +16675,7 @@
         <v>45986.64400462963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>45091</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16789,7 +16789,7 @@
         <v>45722.69996527778</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16846,7 +16846,7 @@
         <v>45037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16903,7 +16903,7 @@
         <v>44480</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45988.7002199074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17017,7 +17017,7 @@
         <v>45204</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>44981</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>45917</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>45720.47795138889</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44568</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>46035</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44607.87353009259</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>45757</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>45953</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>46041.53674768518</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>44448.65248842593</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>44525.66571759259</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>44531.79486111111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>44943</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>46001.68387731481</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>45743.34945601852</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>46001.55708333333</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>46001.68565972222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>46002.42236111111</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>45601.72583333333</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>44897</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44571.64533564815</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>45009.46552083334</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44876</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>45376.34775462963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>45706.46650462963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>45148</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>45775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>45307</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>45056.33105324074</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>45894</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>45617.66905092593</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>45607</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>45631.53980324074</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>45903</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44609.33252314815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>45054.39908564815</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44812.4453587963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>45894</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>45894</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44588.40914351852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19369,7 +19369,7 @@
         <v>45068.25590277778</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>46055.43966435185</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
         <v>46057.46048611111</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19545,7 +19545,7 @@
         <v>45740.59333333333</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19602,7 +19602,7 @@
         <v>46059.48290509259</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19659,7 +19659,7 @@
         <v>46051</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>44533.41365740741</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>46045</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>46045</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>46058.45077546296</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>45588.59628472223</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>46065.57916666667</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>45502</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>45138.87420138889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         <v>45953</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20229,7 +20229,7 @@
         <v>45079</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>44530.54111111111</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>44971</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45373.64959490741</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45987</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>44249</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45947</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>44943.75679398148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45114</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45550</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>44742</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>44827</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45519.98370370371</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45243</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45104</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>44823</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>45307</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>44939</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44939.6433912037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>44939</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44760</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44952.53105324074</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45147.54706018518</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>45439</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44924.77844907407</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>45148.46177083333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>44369</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>44623</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>45747.69128472222</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>45225</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>45717.3734375</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>44426</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>45446</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>45631</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>44951</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>45708</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>45197.62392361111</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>45714</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>45754.44438657408</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>45163.6459837963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>44862</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>45309.74043981481</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>45596</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>45596</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>45567.93495370371</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>45565.34173611111</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
         <v>44259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22918,7 +22918,7 @@
         <v>45236.59087962963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22975,7 +22975,7 @@
         <v>45114.42126157408</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44844.43563657408</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>44660</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44300.66534722222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44816</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44728</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44448</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>45344.67582175926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>45400.91003472222</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44946.46230324074</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>45266</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>45328.58417824074</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>45782</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>45777.57210648148</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>45412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23845,7 +23845,7 @@
         <v>45782.66813657407</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>45782.67138888889</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>45782</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         <v>45782</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>45775</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         <v>44609.33084490741</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24187,7 +24187,7 @@
         <v>45243</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24244,7 +24244,7 @@
         <v>45331</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
         <v>45787.79615740741</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24358,7 +24358,7 @@
         <v>44302</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24415,7 +24415,7 @@
         <v>45796.500625</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24472,7 +24472,7 @@
         <v>45104</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45600.57712962963</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45805.34901620371</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         <v>45810.38347222222</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24700,7 +24700,7 @@
         <v>45813.36682870371</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24757,7 +24757,7 @@
         <v>45813.39872685185</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         <v>45813.4087037037</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24871,7 +24871,7 @@
         <v>45813.37719907407</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24928,7 +24928,7 @@
         <v>45813.3862037037</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>45813.44224537037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>

--- a/Översikt KARLSHAMN.xlsx
+++ b/Översikt KARLSHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>44943</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45187</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45170</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>45909</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>44621</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>44595</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44455</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>45310</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>45835</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44395</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>44901</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>45541.87185185185</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>45376</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>44943</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>44655</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45310</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>45028</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45118</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44316</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44722.59909722222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44271</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44680.48662037037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44812.44907407407</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44525.6672337963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44579</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44342.43024305555</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44314</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>44563.64881944445</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44470</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>44480.43649305555</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44834.34634259259</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44742</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44579</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44834.33880787037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44439.5440625</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>44420.57840277778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>44410</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>44581</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>44783.69622685185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>44462.36195601852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>44523</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44563.64143518519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44308</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>44470</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44582</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44489</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44776</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44776.32068287037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44783.6934375</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44580</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44796</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44522</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44489.59065972222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44489</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44525.66943287037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44526.46231481482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44484.60773148148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>44440.71251157407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44487</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>44812.44100694444</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>45205.45309027778</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44426</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>45550</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44448.65248842593</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44448</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>45412</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>45400.89645833334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>45400.91003472222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>45240.655625</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>44970</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>45448.41711805556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>44895.553125</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>44939.6433912037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44939</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44981</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44480</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>45351.58114583333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>44939</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>45405</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>45884.39746527778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>45805.34901620371</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>45884.41262731481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>44943.75679398148</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>44588.40914351852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>45841.871875</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>45810.38347222222</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>45888.5399537037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>45813.44224537037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>45813.39872685185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>45813.4087037037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         <v>45813.36682870371</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>44623</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>45813.3862037037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>45813.37719907407</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>44609.33252314815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>45706.46650462963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>45894.67875</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>45550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>45820.43166666666</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>45051.5504050926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>45051.55247685185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>45824.39857638889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44876</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>45824</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7180,7 +7180,7 @@
         <v>44660</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45446</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45824</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45824</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>45826</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>45826</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>45826.39158564815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>45898.40318287037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>45898.41143518518</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>45898.40739583333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>45826.39471064815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>45898.60074074074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>45708</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>45827.49337962963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>45898.80969907407</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>45827.33818287037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45870.51523148148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>45898.80243055556</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>45054.39908564815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>45757.89836805555</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45898.80011574074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45831.62890046297</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45702.61518518518</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45205.45201388889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45205.45410879629</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>45902</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45905</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>45151.9915625</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>45908.47857638889</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44952</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44952</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45908.48697916666</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>44259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>45740.59333333333</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>44420</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>45344.67582175926</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>45842.35327546296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>45307</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44971</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44946.46230324074</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>45846</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>45601.72070601852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>44952.53105324074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>45846</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>45104.63803240741</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>45846.66744212963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44903</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>45719</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>45911.34318287037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>45845</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>45848.40825231482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>45848.41686342593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>45848.41505787037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>45916.38508101852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>45849</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>45849</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>45849</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>45849</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>45916.32633101852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45457</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>45254</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>45855.51424768518</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44300.66534722222</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45915.58861111111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45918.60929398148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45918.60636574074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45918.60797453704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44797</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45922.46510416667</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>45789</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>45163.6459837963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44649</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>45737.58035879629</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>45553</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>45919.71508101852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45919.31074074074</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45922</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45035</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>44308</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>44395</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45147.54706018518</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45722.69996527778</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45926.61464120371</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45632.8615162037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45911</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45926.61545138889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45148.46922453704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>44369</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45841.86815972222</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45068</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>45928.73126157407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>45874</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45874</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>45138.87420138889</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44812.4453587963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>44586</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>44410</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44823</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>44827</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>45687</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>45617.66905092593</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>45713.50300925926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>44845</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
         <v>45884.42872685185</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>45884.54277777778</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13297,7 +13297,7 @@
         <v>45884.55166666667</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>45037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         <v>45732.32552083334</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>45884.36712962963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>45884.39449074074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>45937.4305787037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>45937.42768518518</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>45770.68087962963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>45705</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>45079</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>45246.64336805556</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>45246</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>45939</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44924.77844907407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>45596</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>45596</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44897</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>45540.71100694445</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>45757</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>45721.70048611111</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>45950.68288194444</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>45631</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44959</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>45953.3878125</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>45090.59613425926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>45229</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>45953.50732638889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>45761</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>45732.32385416667</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>45954</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>45960.43322916667</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>45943</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>45943</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>45943</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>45967.81233796296</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>45236.59087962963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>45166.66488425926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44935.9128125</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>45967.80944444444</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45148.46177083333</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45743.34945601852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>44518.45365740741</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         <v>45373.64959490741</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>44480</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>45519.95033564815</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15877,7 +15877,7 @@
         <v>45975.59559027778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>45212.44112268519</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         <v>45720.47795138889</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>45975.57913194445</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>45975.45351851852</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>45114</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>45429</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>45009.46552083334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>45981.62704861111</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>45981.60866898148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>45580.40693287037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>45180.55827546296</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16561,7 +16561,7 @@
         <v>45588.59628472223</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16618,7 +16618,7 @@
         <v>45721.69927083333</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16675,7 +16675,7 @@
         <v>45986.65084490741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>45986.65247685185</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16789,7 +16789,7 @@
         <v>45758.58511574074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16846,7 +16846,7 @@
         <v>45986.64540509259</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16903,7 +16903,7 @@
         <v>45328.58417824074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45986.64400462963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17017,7 +17017,7 @@
         <v>45988.7002199074</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>45056.33105324074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>44571.64533564815</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         <v>45631.53980324074</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17245,7 +17245,7 @@
         <v>45716.49268518519</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17302,7 +17302,7 @@
         <v>45917</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17359,7 +17359,7 @@
         <v>45636</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17416,7 +17416,7 @@
         <v>45782</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>45558</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44624.9272337963</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>44686</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>44816</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>45108</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>46041.53674768518</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>44943</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>45114.42126157408</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>46001.55708333333</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>45717.3734375</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>46001.68387731481</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>45219.63592592593</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>46001.68565972222</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>46002.42236111111</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44568</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44287</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>45714</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>45148</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>45775</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>45119</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>45204</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>45894</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>45894</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>45894</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>45903</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>46055.43966435185</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44760</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>45307</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44680.48541666667</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>45754.44438657408</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>46057.46048611111</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>45468</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>46058.45077546296</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19369,7 +19369,7 @@
         <v>45187</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         <v>45611.58128472222</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19483,7 +19483,7 @@
         <v>46059.48290509259</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>45439</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>44951</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19654,7 +19654,7 @@
         <v>45243</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19711,7 +19711,7 @@
         <v>45225</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45530</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19825,7 +19825,7 @@
         <v>44844.43563657408</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         <v>45502</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>46065.57916666667</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19996,7 +19996,7 @@
         <v>44812.56114583334</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20053,7 +20053,7 @@
         <v>45266</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>45225</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45169</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>45104</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45565.34173611111</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>44287</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         <v>45747.69128472222</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20452,7 +20452,7 @@
         <v>45279</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
         <v>46045</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>45953</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20623,7 +20623,7 @@
         <v>44530.54111111111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>45947</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20737,7 +20737,7 @@
         <v>46045</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20794,7 +20794,7 @@
         <v>46051</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20851,7 +20851,7 @@
         <v>44797</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>46035</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20965,7 +20965,7 @@
         <v>44862</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21027,7 +21027,7 @@
         <v>45987</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21084,7 +21084,7 @@
         <v>45953</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>44462</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>44983</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21255,7 +21255,7 @@
         <v>45967.81849537037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45091</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45330</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44728</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>45006.68451388889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>45270.94265046297</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44301.64060185185</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>45106</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>45601.72583333333</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>45607</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>44607.87353009259</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>45714</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>45758.58395833334</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>44742</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>45114</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>44568</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>45114.41935185185</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>45163.36048611111</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>45028</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>45744.57290509259</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>45376.34775462963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>45007.76496527778</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>45461</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>45309.74043981481</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>44525.66571759259</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>45439</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>45726</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
         <v>45266.57267361111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22918,7 +22918,7 @@
         <v>45238.43497685185</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22975,7 +22975,7 @@
         <v>45068.25590277778</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44531.79486111111</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44533.41365740741</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>45567.93495370371</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>45714</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>45072</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>45197.62392361111</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44962</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44743</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>45219.63459490741</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>45152</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44897</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>45118</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>44923.68336805556</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>45519.98370370371</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>44622.57549768518</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23897,7 +23897,7 @@
         <v>45412</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>45777.57210648148</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         <v>45782.66813657407</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>45782.67138888889</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         <v>45782</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24187,7 +24187,7 @@
         <v>45782</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24244,7 +24244,7 @@
         <v>44302</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
         <v>45243</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24358,7 +24358,7 @@
         <v>44609.33084490741</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24415,7 +24415,7 @@
         <v>45775</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24472,7 +24472,7 @@
         <v>45787.79615740741</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45331</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45796.500625</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         <v>45600.57712962963</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24700,7 +24700,7 @@
         <v>45104</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
